--- a/src/test/java/data/dataSheet.xlsx
+++ b/src/test/java/data/dataSheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TestCases</t>
   </si>
@@ -57,10 +57,7 @@
     <t>xzfd</t>
   </si>
   <si>
-    <t>ofgfgf</t>
-  </si>
-  <si>
-    <t>asasfsdf</t>
+    <t>gfg345</t>
   </si>
   <si>
     <t>Delete Profile</t>
@@ -389,22 +386,22 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+      <c r="D4" s="1">
+        <v>345.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
